--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/descargar_tarjeta_virtual_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/descargar_tarjeta_virtual_eprepago.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/e-prepago/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A979C603-4365-4CB1-BAD3-F6762664AAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -101,20 +102,23 @@
     <t>valorDescarga</t>
   </si>
   <si>
-    <t>406-714500-19</t>
-  </si>
-  <si>
     <t>1000</t>
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>autotest28</t>
+  </si>
+  <si>
+    <t>406-714530-17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,19 +500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,18 +559,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>333333304</v>
+        <v>93221453</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4">
         <v>1234</v>
@@ -593,16 +597,16 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -640,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>20</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/descargar_tarjeta_virtual_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/descargar_tarjeta_virtual_eprepago.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A979C603-4365-4CB1-BAD3-F6762664AAF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -102,22 +101,22 @@
     <t>valorDescarga</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>autotest28</t>
-  </si>
-  <si>
-    <t>406-714530-17</t>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>406-182800-02</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -500,19 +499,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.5">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -570,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4">
         <v>1234</v>
@@ -597,16 +600,16 @@
         <v>15</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.5">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -644,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>20</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/eprepago/descargar_tarjeta_virtual_eprepago.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/eprepago/descargar_tarjeta_virtual_eprepago.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\eprepago\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE77365F-74DC-44D0-B581-D0EF733951B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -111,12 +112,15 @@
   </si>
   <si>
     <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>Corriente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -499,20 +503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -562,7 +566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:15" ht="16.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -602,14 +606,14 @@
       <c r="M2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>20</v>
+      <c r="N2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75">
+    <row r="3" spans="1:15" ht="16.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
